--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -1,196 +1,597 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.8092"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\OneDrive\바탕 화면\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\OhProject\TeamProject\1S3BHealingGame\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F81339-E6AF-4A33-AC5E-7644DC8568B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="31575" yWindow="1110" windowWidth="23460" windowHeight="13365" xr2:uid="{1E5654F3-9777-413A-AF71-510CE7FF5BF8}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="12350" windowHeight="11230"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>#ItemData[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SellGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuyGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpritePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <x:si>
+    <x:t>SellGold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SpritePath</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#ItemData[{}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BuyGold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Season</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이게 뭐임</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222225"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="7">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff222225"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="12">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -363,21 +764,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -438,6 +839,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="20000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -457,67 +879,98 @@
         </a:fontRef>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC715218-5A55-46B0-961A-416042994FD7}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:J2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D32" activeCellId="0" sqref="D32:D32"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="8.66015625" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="8.66015625" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10" ht="17.800000000000001">
+      <x:c r="A1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EBC86C-9001-48DF-B1E2-D8DE53606496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E231C07-462E-43FA-BE53-D1A3F860354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="825" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="405" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>SellGold</t>
   </si>
   <si>
-    <t>SpritePath</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -109,24 +103,208 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Resources에서 스프라이트 불러오기용임돠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파스닙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜리플라워</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Crop</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteName[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarrotSeed,Carrot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Carrot/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Pumpkin/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpkinSeed,Pumpkin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Potato/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotatoSeed,Potato</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Watermelon/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatermelonSeed,Watermelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Radish/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadishSeed,Radish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Lettuce/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LettuceSeed,Lettuce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Wheat/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WheatSeed,Wheat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Eggplant/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EggplantSeed,Eggplant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Corn/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CornSeed,Corn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Tomato/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TomatoSeed,Tomato</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Strawberry/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrawberrySeed,Strawberry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 작물로 자라는데에 12일이 소요된다.,호박이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 작물로 자라는데에 8일이 소요된다.,감자다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 작물로 자라는데에 10일이 소요된다.,수박이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물로 자라는데에 8일이 소요된다.,무다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물로 자라는데에 5일이 소요된다.,무다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 작물로 자라는데에 5일이 소요된다.,당근이다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 작물로 자라는데에 7일이 소요된다. 수확시 건초를 얻을 수 있다.,밀이다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 작물로 자라는데에 7일이 소요된다.여러번 수확할 수 있다.,옥수수다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 작물로 자라는데에 7일이 소요된다.여러번 수확할 수 있다.,토마토다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 작물로 자라는데에 8일이 소요된다.여러번 수확할 수 있다.,딸기다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 작물로 자라는데에 6일이 소요된다.여러번 수확할 수 있다.,가지다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -134,9 +312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,6 +324,8 @@
       <sz val="12"/>
       <color rgb="FF222225"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -173,6 +353,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222225"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,14 +391,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -212,7 +407,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,7 +599,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -407,7 +608,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -767,54 +968,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -822,48 +1027,46 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
-        <v>1001</v>
+        <v>10001001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -877,19 +1080,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>1002</v>
+        <v>10001002</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -903,19 +1106,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>1003</v>
+        <v>10001003</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -929,19 +1132,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
-        <v>1004</v>
+        <v>10001004</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -955,35 +1158,354 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
-        <v>2001</v>
+        <v>10002001</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
-        <v>2002</v>
+        <v>10002002</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
-        <v>2003</v>
+        <v>10002003</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>10002004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>10002005</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>10002006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10002007</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>10003001</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>10003002</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>10003003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>10003004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E231C07-462E-43FA-BE53-D1A3F860354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FCC6B-56AB-4DE5-A82B-8E5DE2E0674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="405" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>SellGold</t>
   </si>
@@ -28,9 +28,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>테스트</t>
-  </si>
-  <si>
     <t>#ItemData[{}]</t>
   </si>
   <si>
@@ -46,265 +43,147 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>테스트임</t>
-  </si>
-  <si>
-    <t>계절</t>
-  </si>
-  <si>
-    <t>타입</t>
-  </si>
-  <si>
-    <t>이게 뭐임</t>
-  </si>
-  <si>
     <t>괭이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>물뿌리개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>곡괭이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>도끼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>땅을 개간할때 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작물에 물을 줄 때 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>돌을 깰 때 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나무를 벨 때 사용한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equip</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Crop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>당근</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>토마토</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>딸기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>호박</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>옥수수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>감자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수박</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>무</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>양배추</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>밀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>가지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteName[]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarrotSeed,Carrot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Carrot/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Pumpkin/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PumpkinSeed,Pumpkin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Potato/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotatoSeed,Potato</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Watermelon/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatermelonSeed,Watermelon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Radish/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadishSeed,Radish</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Lettuce/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LettuceSeed,Lettuce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Wheat/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WheatSeed,Wheat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Eggplant/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EggplantSeed,Eggplant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Corn/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CornSeed,Corn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Tomato/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TomatoSeed,Tomato</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Strawberry/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrawberrySeed,Strawberry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Description[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가을 작물로 자라는데에 12일이 소요된다.,호박이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 작물로 자라는데에 8일이 소요된다.,감자다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 작물로 자라는데에 10일이 소요된다.,수박이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물로 자라는데에 8일이 소요된다.,무다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물로 자라는데에 5일이 소요된다.,무다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가을 작물로 자라는데에 5일이 소요된다.,당근이다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가을 작물로 자라는데에 7일이 소요된다. 수확시 건초를 얻을 수 있다.,밀이다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 작물로 자라는데에 7일이 소요된다.여러번 수확할 수 있다.,옥수수다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>가을 작물로 자라는데에 7일이 소요된다.여러번 수확할 수 있다.,토마토다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 작물로 자라는데에 8일이 소요된다.여러번 수확할 수 있다.,딸기다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 작물로 자라는데에 6일이 소요된다.여러번 수확할 수 있다.,가지다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CropID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEASON 작물로 자라는데에 GROWTHTIME일이 소요된다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/CarrotSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/PumpkinSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/PotatoSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/WatermelonSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/RadishSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/LettuceSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/WheatSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/EggplantSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/CornSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/TomatoSeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/StrawberrySeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -314,18 +193,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222225"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -391,29 +263,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,105 +837,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>10001001</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>10001002</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
-        <v>10001001</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1078,21 +939,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>10001002</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>10001003</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1104,21 +965,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>10001003</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>10001004</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+      <c r="F5">
+        <v>-1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1130,47 +991,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>10001004</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>10002001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>10002002</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>10002001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1181,28 +1045,25 @@
       <c r="I7">
         <v>100</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>10002002</v>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>10002003</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1213,28 +1074,25 @@
       <c r="I8">
         <v>100</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>10002003</v>
+      <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>10002004</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1245,28 +1103,25 @@
       <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>10002004</v>
+      <c r="J9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>10002005</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>36</v>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1277,28 +1132,25 @@
       <c r="I10">
         <v>100</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>10002005</v>
+      <c r="J10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>10002006</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1309,28 +1161,25 @@
       <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>10002006</v>
+      <c r="J11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>10002007</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1341,28 +1190,25 @@
       <c r="I12">
         <v>100</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10002007</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
+      <c r="J12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10003001</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>101</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1373,28 +1219,25 @@
       <c r="I13">
         <v>100</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>10003001</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>36</v>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10003002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>102</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1405,28 +1248,25 @@
       <c r="I14">
         <v>100</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>10003002</v>
+      <c r="J14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>10003003</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>103</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1437,28 +1277,25 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>10003003</v>
+      <c r="J15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>10003004</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>104</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1469,47 +1306,12 @@
       <c r="I16">
         <v>100</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>10003004</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>100</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>62</v>
+      <c r="J16" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FCC6B-56AB-4DE5-A82B-8E5DE2E0674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857E7C6-04EF-495D-B1B7-F4FBD2C135A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="555" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,50 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>당근</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>옥수수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수박</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>무</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -183,6 +139,50 @@
   </si>
   <si>
     <t>Crops/Seeds/StrawberrySeed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토씨앗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기씨앗</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +840,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,13 +866,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -995,11 +995,11 @@
       <c r="B6" s="1">
         <v>10002001</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -1017,18 +1017,18 @@
         <v>100</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>10002002</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -1046,18 +1046,18 @@
         <v>100</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>10002003</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1075,18 +1075,18 @@
         <v>100</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10002004</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -1104,18 +1104,18 @@
         <v>100</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>10002005</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1133,18 +1133,18 @@
         <v>100</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10002006</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
@@ -1162,18 +1162,18 @@
         <v>100</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10002007</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
@@ -1191,7 +1191,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1199,10 +1199,10 @@
         <v>10003001</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1220,18 +1220,18 @@
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10003002</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -1249,18 +1249,18 @@
         <v>100</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>10003003</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1278,18 +1278,18 @@
         <v>100</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>10003004</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1307,7 +1307,7 @@
         <v>100</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857E7C6-04EF-495D-B1B7-F4FBD2C135A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E9190-2B64-46F6-8467-6B0F09178721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="555" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>SellGold</t>
   </si>
@@ -98,50 +98,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Crops/Seeds/CarrotSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/PumpkinSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/PotatoSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/WatermelonSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/RadishSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/LettuceSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/WheatSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/EggplantSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/CornSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/TomatoSeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops/Seeds/StrawberrySeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>당근씨앗</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -184,6 +140,58 @@
   <si>
     <t>딸기씨앗</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteName[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops/Seeds/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarrotSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpkinSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotatoSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatermelonSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadishSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LettuceSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WheatSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EggplantSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CornSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TomatoSeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrawberrySeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,10 +845,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -852,10 +860,11 @@
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -886,8 +895,11 @@
       <c r="J1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4">
         <v>10001001</v>
       </c>
@@ -913,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>10001002</v>
       </c>
@@ -939,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>10001003</v>
       </c>
@@ -965,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>10001004</v>
       </c>
@@ -991,12 +1003,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>10002001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -1017,15 +1029,18 @@
         <v>100</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>10002002</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1046,15 +1061,18 @@
         <v>100</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>10002003</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -1075,15 +1093,18 @@
         <v>100</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10002004</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -1104,15 +1125,18 @@
         <v>100</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>10002005</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1133,15 +1157,18 @@
         <v>100</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>10002006</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
@@ -1162,15 +1189,18 @@
         <v>100</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10002007</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -1191,15 +1221,18 @@
         <v>100</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10003001</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
@@ -1220,15 +1253,18 @@
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10003002</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>20</v>
@@ -1249,15 +1285,18 @@
         <v>100</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>10003003</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>20</v>
@@ -1278,15 +1317,18 @@
         <v>100</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>10003004</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>20</v>
@@ -1307,7 +1349,10 @@
         <v>100</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E9190-2B64-46F6-8467-6B0F09178721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9928ECB-46AC-4FA4-933D-558BDADF0BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>SellGold</t>
   </si>
@@ -191,6 +191,26 @@
   </si>
   <si>
     <t>StrawberrySeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +868,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,6 +944,12 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
@@ -950,6 +976,12 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
@@ -976,6 +1008,12 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
@@ -1001,6 +1039,12 @@
       </c>
       <c r="I5">
         <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9928ECB-46AC-4FA4-933D-558BDADF0BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B92FD-C4BE-4E1B-A293-4B39EE115ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>SellGold</t>
   </si>
@@ -194,23 +194,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PickAxe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe</t>
+    <t>Equip/Hoe/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip/Water/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip/PickAxe/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip/Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 공격할 때 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip/Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,10 +873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -880,7 +888,7 @@
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -945,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -979,8 +987,8 @@
       <c r="J3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>47</v>
+      <c r="K3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1009,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1041,50 +1049,50 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>10001005</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>10002001</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>10002002</v>
+        <v>10002001</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1093,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1108,15 +1116,15 @@
         <v>33</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>10002003</v>
+        <v>10002002</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -1125,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1140,15 +1148,15 @@
         <v>33</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>10002004</v>
+        <v>10002003</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -1157,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1172,15 +1180,15 @@
         <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>10002005</v>
+        <v>10002004</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1189,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1204,15 +1212,15 @@
         <v>33</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>10002006</v>
+        <v>10002005</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
@@ -1221,7 +1229,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1236,15 +1244,15 @@
         <v>33</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>10002007</v>
+        <v>10002006</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -1253,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1268,15 +1276,15 @@
         <v>33</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>10003001</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>10002007</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
@@ -1285,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="1">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1300,15 +1308,15 @@
         <v>33</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>10003002</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>10003001</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>20</v>
@@ -1317,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1332,15 +1340,15 @@
         <v>33</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>10003003</v>
+        <v>10003002</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>20</v>
@@ -1349,7 +1357,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1364,15 +1372,15 @@
         <v>33</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>10003004</v>
+        <v>10003003</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>20</v>
@@ -1381,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1396,6 +1404,38 @@
         <v>33</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>10003004</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>44</v>
       </c>
     </row>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B92FD-C4BE-4E1B-A293-4B39EE115ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10BB313-C218-4464-8290-12538F91F503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>SellGold</t>
   </si>
@@ -219,6 +219,38 @@
   </si>
   <si>
     <t>Equip/Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 베서 나온 나무조각. 건물을 짓거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,10 +905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1439,6 +1471,70 @@
         <v>44</v>
       </c>
     </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>20001001</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>20001002</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10BB313-C218-4464-8290-12538F91F503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0269EA9C-4D60-4DE2-92EE-E8AFF37821E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,10 +905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1535,6 +1535,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0269EA9C-4D60-4DE2-92EE-E8AFF37821E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13E90F-E1CA-4365-9131-31C413CE1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="82">
   <si>
     <t>SellGold</t>
   </si>
@@ -251,6 +251,94 @@
   </si>
   <si>
     <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature/spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature/summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature/fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature/winter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민들레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식용버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통통한버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식용꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 버섯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,7 +1049,7 @@
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4">
-        <v>10001001</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -993,7 +1081,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
-        <v>10001002</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -1025,7 +1113,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
-        <v>10001003</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1057,7 +1145,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
-        <v>10001004</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1089,7 +1177,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
-        <v>10001005</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -1121,7 +1209,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>10002001</v>
+        <v>2001</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -1153,7 +1241,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>10002002</v>
+        <v>2002</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>22</v>
@@ -1185,7 +1273,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>10002003</v>
+        <v>2003</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -1217,7 +1305,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>10002004</v>
+        <v>2004</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>24</v>
@@ -1249,7 +1337,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>10002005</v>
+        <v>2005</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -1281,7 +1369,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>10002006</v>
+        <v>2006</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
@@ -1313,7 +1401,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>10002007</v>
+        <v>2007</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
@@ -1345,7 +1433,7 @@
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>10003001</v>
+        <v>3001</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>28</v>
@@ -1377,7 +1465,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>10003002</v>
+        <v>3002</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>29</v>
@@ -1409,7 +1497,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>10003003</v>
+        <v>3003</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -1441,7 +1529,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>10003004</v>
+        <v>3004</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>31</v>
@@ -1473,7 +1561,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>20001001</v>
+        <v>4001</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>52</v>
@@ -1494,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>57</v>
@@ -1505,7 +1593,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>20001002</v>
+        <v>4002</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>53</v>
@@ -1526,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>57</v>
@@ -1536,9 +1624,740 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>5002</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>5003</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>5004</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>5005</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>5006</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>5007</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>5101</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>5102</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>5103</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>5104</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>5105</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>5106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>5201</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>5202</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>5203</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>5204</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>5205</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>5206</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>5301</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>5302</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>5303</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41">
+        <v>-1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>5304</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42">
+        <v>-1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="5">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13E90F-E1CA-4365-9131-31C413CE1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCF8612-28B3-4B0F-9944-4F1EE0A68933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="990" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
   <si>
     <t>SellGold</t>
   </si>
@@ -340,6 +340,26 @@
   <si>
     <t>독 버섯</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>PickAxe</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1013,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1005,14 +1025,15 @@
     <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1029,25 +1050,28 @@
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
       <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4">
         <v>1001</v>
       </c>
@@ -1060,26 +1084,29 @@
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>-1</v>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1002</v>
       </c>
@@ -1092,26 +1119,29 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>-1</v>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1003</v>
       </c>
@@ -1124,26 +1154,29 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>-1</v>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1004</v>
       </c>
@@ -1156,26 +1189,29 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>-1</v>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>1005</v>
       </c>
@@ -1188,26 +1224,29 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>-1</v>
+      <c r="F6" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2001</v>
       </c>
@@ -1220,26 +1259,29 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2002</v>
       </c>
@@ -1252,26 +1294,29 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2003</v>
       </c>
@@ -1284,26 +1329,29 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>2004</v>
       </c>
@@ -1316,26 +1364,29 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2005</v>
       </c>
@@ -1348,26 +1399,29 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>2006</v>
       </c>
@@ -1380,26 +1434,29 @@
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2007</v>
       </c>
@@ -1412,26 +1469,29 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>100</v>
-      </c>
-      <c r="J13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>3001</v>
       </c>
@@ -1444,26 +1504,29 @@
       <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
         <v>101</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>3002</v>
       </c>
@@ -1476,26 +1539,29 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
         <v>102</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>3003</v>
       </c>
@@ -1508,26 +1574,29 @@
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
         <v>103</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>100</v>
-      </c>
-      <c r="J16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>3004</v>
       </c>
@@ -1540,26 +1609,29 @@
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
         <v>104</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>100</v>
-      </c>
-      <c r="J17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>4001</v>
       </c>
@@ -1576,22 +1648,25 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>100</v>
-      </c>
-      <c r="J18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>4002</v>
       </c>
@@ -1608,22 +1683,25 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>100</v>
-      </c>
-      <c r="J19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>5001</v>
       </c>
@@ -1640,22 +1718,25 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>100</v>
-      </c>
-      <c r="J20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>5002</v>
       </c>
@@ -1672,22 +1753,25 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>100</v>
-      </c>
-      <c r="J21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>5003</v>
       </c>
@@ -1704,22 +1788,25 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>5004</v>
       </c>
@@ -1736,22 +1823,25 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>100</v>
-      </c>
-      <c r="J23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>5005</v>
       </c>
@@ -1768,22 +1858,25 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>100</v>
-      </c>
-      <c r="J24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>5006</v>
       </c>
@@ -1800,22 +1893,25 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>100</v>
-      </c>
-      <c r="J25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>5007</v>
       </c>
@@ -1832,22 +1928,25 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>100</v>
-      </c>
-      <c r="J26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>5101</v>
       </c>
@@ -1864,22 +1963,25 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>100</v>
-      </c>
-      <c r="J27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>5102</v>
       </c>
@@ -1896,22 +1998,25 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>100</v>
-      </c>
-      <c r="J28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>5103</v>
       </c>
@@ -1928,22 +2033,25 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>100</v>
-      </c>
-      <c r="J29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>5104</v>
       </c>
@@ -1960,22 +2068,25 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>100</v>
-      </c>
-      <c r="J30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>5105</v>
       </c>
@@ -1992,22 +2103,25 @@
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>100</v>
-      </c>
-      <c r="J31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>5106</v>
       </c>
@@ -2024,22 +2138,25 @@
         <v>-1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>100</v>
-      </c>
-      <c r="J32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>5201</v>
       </c>
@@ -2056,22 +2173,25 @@
         <v>-1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>100</v>
-      </c>
-      <c r="J33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>5202</v>
       </c>
@@ -2088,22 +2208,25 @@
         <v>-1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>100</v>
-      </c>
-      <c r="J34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>5203</v>
       </c>
@@ -2120,22 +2243,25 @@
         <v>-1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>100</v>
-      </c>
-      <c r="J35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>5204</v>
       </c>
@@ -2152,22 +2278,25 @@
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>100</v>
-      </c>
-      <c r="J36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>5205</v>
       </c>
@@ -2184,22 +2313,25 @@
         <v>-1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>100</v>
-      </c>
-      <c r="J37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>5206</v>
       </c>
@@ -2216,22 +2348,25 @@
         <v>-1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>100</v>
-      </c>
-      <c r="J38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>5301</v>
       </c>
@@ -2248,22 +2383,25 @@
         <v>-1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>100</v>
-      </c>
-      <c r="J39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>5302</v>
       </c>
@@ -2280,22 +2418,25 @@
         <v>-1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>100</v>
-      </c>
-      <c r="J40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>5303</v>
       </c>
@@ -2312,22 +2453,25 @@
         <v>-1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>100</v>
-      </c>
-      <c r="J41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>5304</v>
       </c>
@@ -2344,18 +2488,21 @@
         <v>-1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>100</v>
-      </c>
-      <c r="J42" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <v>4</v>
       </c>
     </row>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -19,270 +19,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+  <x:si>
+    <x:t>Water</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식용버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옥수수씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울베리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통통한버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딸기씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickAxe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물뿌리개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가지씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BuyGold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양배추씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수박씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호박씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Equip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당근씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CropID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickAxe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무를 베서 나온 나무조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEASON 작물로 자라는데에 GROWTHTIME일이 소요된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작물에 물을 줄 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터를 공격할 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민들레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곡괭이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괭이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식용꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Water1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SellGold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nature/fall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CornSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PumpkinSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LettuceSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PotatoSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RadishSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WheatSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CarrotSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TomatoSeed</x:t>
+  </x:si>
   <x:si>
     <x:t>Crops/Seeds</x:t>
   </x:si>
   <x:si>
-    <x:t>Equip/Water</x:t>
-  </x:si>
-  <x:si>
     <x:t>EquipType</x:t>
   </x:si>
   <x:si>
-    <x:t>Sword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딸기씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식용버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통통한버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옥수수씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울베리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Water</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickAxe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물뿌리개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BuyGold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양배추씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가지씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CropID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호박씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수박씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당근씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SellGold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TomatoSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PumpkinSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WheatSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CarrotSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CornSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LettuceSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RadishSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PotatoSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equip/Axe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nature/fall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equip/Sword</x:t>
+    <x:t>나무를 벨 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nature/spring</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌을 깰 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅을 개간할때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description[]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WatermelonSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nature/summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SpriteName[]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EggplantSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StrawberrySeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nature/winter</x:t>
   </x:si>
   <x:si>
     <x:t>#ItemData[{}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌을 깰 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅을 개간할때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StrawberrySeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nature/winter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nature/spring</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WatermelonSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SpriteName[]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무를 벨 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description[]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EggplantSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nature/summer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작물에 물을 줄 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터를 공격할 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEASON 작물로 자라는데에 GROWTHTIME일이 소요된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무를 베서 나온 나무조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민들레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곡괭이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식용꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괭이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equip/PickAxe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equip/Hoe</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -359,7 +356,7 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="8">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1131,7 +1128,7 @@
   <x:dimension ref="A1:L42"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K17" activeCellId="0" sqref="K17:K17"/>
+      <x:selection activeCell="L6" activeCellId="0" sqref="L6:L6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.399999999999999"/>
@@ -1150,40 +1147,40 @@
   <x:sheetData>
     <x:row r="1" spans="1:12">
       <x:c r="A1" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D1" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F1" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G1" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L1" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:12" ht="17.800000000000001">
@@ -1191,16 +1188,16 @@
         <x:v>1001</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F2" s="4" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="G2" s="1">
         <x:v>-1</x:v>
@@ -1215,10 +1212,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K2" s="6" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="L2" s="6">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L2" s="6" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:12" ht="17.800000000000001">
@@ -1226,16 +1223,16 @@
         <x:v>1002</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="1">
         <x:v>-1</x:v>
@@ -1250,10 +1247,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L3" s="6">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L3" s="6" t="s">
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:12" ht="17.800000000000001">
@@ -1261,16 +1258,16 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="1">
         <x:v>-1</x:v>
@@ -1285,10 +1282,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K4" s="6" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="L4" s="6">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L4" s="6" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:12" ht="17.800000000000001">
@@ -1296,16 +1293,16 @@
         <x:v>1004</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G5" s="1">
         <x:v>-1</x:v>
@@ -1320,10 +1317,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="6" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="L5" s="6">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L5" s="6" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" ht="17.800000000000001">
@@ -1331,16 +1328,16 @@
         <x:v>1005</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G6" s="1">
         <x:v>-1</x:v>
@@ -1355,10 +1352,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K6" s="6" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L6" s="6">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L6" s="6" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12">
@@ -1366,13 +1363,13 @@
         <x:v>2001</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="1">
         <x:v>-1</x:v>
@@ -1390,10 +1387,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K7" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L7" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:12">
@@ -1401,13 +1398,13 @@
         <x:v>2002</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="1">
         <x:v>-1</x:v>
@@ -1425,10 +1422,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K8" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L8" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:12">
@@ -1436,13 +1433,13 @@
         <x:v>2003</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="1">
         <x:v>-1</x:v>
@@ -1460,10 +1457,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K9" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L9" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:12">
@@ -1471,13 +1468,13 @@
         <x:v>2004</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F10" s="1">
         <x:v>-1</x:v>
@@ -1495,10 +1492,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K10" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L10" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:12">
@@ -1506,13 +1503,13 @@
         <x:v>2005</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="1">
         <x:v>-1</x:v>
@@ -1530,10 +1527,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K11" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L11" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:12">
@@ -1541,13 +1538,13 @@
         <x:v>2006</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F12" s="1">
         <x:v>-1</x:v>
@@ -1565,10 +1562,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K12" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L12" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:12">
@@ -1576,13 +1573,13 @@
         <x:v>2007</x:v>
       </x:c>
       <x:c r="C13" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F13" s="1">
         <x:v>-1</x:v>
@@ -1600,10 +1597,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K13" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L13" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:12" ht="17.800000000000001">
@@ -1611,13 +1608,13 @@
         <x:v>3001</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F14" s="1">
         <x:v>-1</x:v>
@@ -1635,10 +1632,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K14" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L14" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12">
@@ -1646,13 +1643,13 @@
         <x:v>3002</x:v>
       </x:c>
       <x:c r="C15" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F15" s="1">
         <x:v>-1</x:v>
@@ -1670,10 +1667,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K15" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L15" s="6" t="s">
-        <x:v>42</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:12">
@@ -1681,13 +1678,13 @@
         <x:v>3003</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F16" s="1">
         <x:v>-1</x:v>
@@ -1705,10 +1702,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K16" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L16" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
@@ -1716,13 +1713,13 @@
         <x:v>3004</x:v>
       </x:c>
       <x:c r="C17" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="1">
         <x:v>-1</x:v>
@@ -1740,10 +1737,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K17" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L17" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:12">
@@ -1751,13 +1748,13 @@
         <x:v>4001</x:v>
       </x:c>
       <x:c r="C18" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F18" s="1">
         <x:v>-1</x:v>
@@ -1775,10 +1772,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K18" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L18" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:12">
@@ -1786,13 +1783,13 @@
         <x:v>4002</x:v>
       </x:c>
       <x:c r="C19" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F19" s="1">
         <x:v>-1</x:v>
@@ -1810,10 +1807,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K19" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L19" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:12">
@@ -1821,13 +1818,13 @@
         <x:v>5001</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1">
         <x:v>-1</x:v>
@@ -1845,7 +1842,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L20" s="6">
         <x:v>1</x:v>
@@ -1856,13 +1853,13 @@
         <x:v>5002</x:v>
       </x:c>
       <x:c r="C21" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D21" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E21" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F21" s="1">
         <x:v>-1</x:v>
@@ -1880,7 +1877,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K21" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L21" s="6">
         <x:v>2</x:v>
@@ -1891,31 +1888,31 @@
         <x:v>5003</x:v>
       </x:c>
       <x:c r="C22" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D22" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E22" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F22" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="G22" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="H22" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I22" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J22" s="1">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K22" s="6" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="D22" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F22" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="G22" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="H22" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I22" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J22" s="1">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="K22" s="6" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="L22" s="6">
         <x:v>3</x:v>
@@ -1926,31 +1923,31 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="C23" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D23" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E23" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F23" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="G23" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="H23" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I23" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J23" s="1">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K23" s="6" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="D23" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E23" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F23" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="G23" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="H23" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I23" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J23" s="1">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="K23" s="6" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="L23" s="6">
         <x:v>4</x:v>
@@ -1961,31 +1958,31 @@
         <x:v>5005</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D24" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E24" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F24" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="G24" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="H24" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I24" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J24" s="1">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K24" s="6" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="D24" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F24" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="G24" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="H24" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I24" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J24" s="1">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="K24" s="6" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="L24" s="6">
         <x:v>5</x:v>
@@ -1996,31 +1993,31 @@
         <x:v>5006</x:v>
       </x:c>
       <x:c r="C25" s="6" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D25" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E25" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F25" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="G25" s="1">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="H25" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I25" s="1">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J25" s="1">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K25" s="6" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="D25" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E25" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F25" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="G25" s="1">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="H25" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I25" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J25" s="1">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="K25" s="6" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="L25" s="6">
         <x:v>6</x:v>
@@ -2031,13 +2028,13 @@
         <x:v>5007</x:v>
       </x:c>
       <x:c r="C26" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D26" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F26" s="1">
         <x:v>-1</x:v>
@@ -2055,7 +2052,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K26" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L26" s="6">
         <x:v>7</x:v>
@@ -2066,13 +2063,13 @@
         <x:v>5101</x:v>
       </x:c>
       <x:c r="C27" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="6" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F27" s="1">
         <x:v>-1</x:v>
@@ -2090,7 +2087,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K27" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L27" s="6">
         <x:v>1</x:v>
@@ -2101,13 +2098,13 @@
         <x:v>5102</x:v>
       </x:c>
       <x:c r="C28" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D28" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F28" s="1">
         <x:v>-1</x:v>
@@ -2125,7 +2122,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K28" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L28" s="6">
         <x:v>2</x:v>
@@ -2136,13 +2133,13 @@
         <x:v>5103</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F29" s="1">
         <x:v>-1</x:v>
@@ -2160,7 +2157,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K29" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L29" s="6">
         <x:v>3</x:v>
@@ -2171,13 +2168,13 @@
         <x:v>5104</x:v>
       </x:c>
       <x:c r="C30" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D30" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E30" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F30" s="1">
         <x:v>-1</x:v>
@@ -2195,7 +2192,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K30" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L30" s="6">
         <x:v>4</x:v>
@@ -2206,13 +2203,13 @@
         <x:v>5105</x:v>
       </x:c>
       <x:c r="C31" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D31" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E31" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F31" s="1">
         <x:v>-1</x:v>
@@ -2230,7 +2227,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K31" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L31" s="6">
         <x:v>5</x:v>
@@ -2241,13 +2238,13 @@
         <x:v>5106</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E32" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F32" s="1">
         <x:v>-1</x:v>
@@ -2265,7 +2262,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K32" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L32" s="6">
         <x:v>6</x:v>
@@ -2276,13 +2273,13 @@
         <x:v>5201</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E33" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F33" s="1">
         <x:v>-1</x:v>
@@ -2300,7 +2297,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K33" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L33" s="6">
         <x:v>1</x:v>
@@ -2311,13 +2308,13 @@
         <x:v>5202</x:v>
       </x:c>
       <x:c r="C34" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D34" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E34" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F34" s="1">
         <x:v>-1</x:v>
@@ -2335,7 +2332,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K34" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L34" s="6">
         <x:v>2</x:v>
@@ -2346,13 +2343,13 @@
         <x:v>5203</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D35" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E35" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F35" s="1">
         <x:v>-1</x:v>
@@ -2370,7 +2367,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K35" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L35" s="6">
         <x:v>3</x:v>
@@ -2381,13 +2378,13 @@
         <x:v>5204</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D36" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E36" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F36" s="1">
         <x:v>-1</x:v>
@@ -2405,7 +2402,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K36" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L36" s="6">
         <x:v>4</x:v>
@@ -2416,13 +2413,13 @@
         <x:v>5205</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E37" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F37" s="1">
         <x:v>-1</x:v>
@@ -2440,7 +2437,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K37" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L37" s="6">
         <x:v>5</x:v>
@@ -2451,13 +2448,13 @@
         <x:v>5206</x:v>
       </x:c>
       <x:c r="C38" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D38" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E38" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F38" s="1">
         <x:v>-1</x:v>
@@ -2475,7 +2472,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K38" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="L38" s="6">
         <x:v>6</x:v>
@@ -2486,13 +2483,13 @@
         <x:v>5301</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D39" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E39" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F39" s="1">
         <x:v>-1</x:v>
@@ -2510,7 +2507,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K39" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L39" s="6">
         <x:v>1</x:v>
@@ -2521,13 +2518,13 @@
         <x:v>5302</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E40" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F40" s="1">
         <x:v>-1</x:v>
@@ -2545,7 +2542,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K40" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L40" s="6">
         <x:v>2</x:v>
@@ -2556,13 +2553,13 @@
         <x:v>5303</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E41" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F41" s="1">
         <x:v>-1</x:v>
@@ -2580,7 +2577,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K41" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L41" s="6">
         <x:v>3</x:v>
@@ -2591,13 +2588,13 @@
         <x:v>5304</x:v>
       </x:c>
       <x:c r="C42" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D42" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E42" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F42" s="1">
         <x:v>-1</x:v>
@@ -2615,14 +2612,14 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K42" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L42" s="6">
         <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDF17C9-9002-4B11-AA85-666D61CD13F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111AC8B8-3A73-466C-A58E-65495C94BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28965" yWindow="990" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
   <si>
     <t>Water</t>
   </si>
@@ -130,9 +130,6 @@
     <t>SEASON 작물로 자라는데에 GROWTHTIME일이 소요된다.</t>
   </si>
   <si>
-    <t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</t>
-  </si>
-  <si>
     <t>작물에 물을 줄 때 사용한다.</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>약초</t>
-  </si>
-  <si>
-    <t>돌</t>
   </si>
   <si>
     <t>Axe</t>
@@ -350,6 +344,62 @@
   </si>
   <si>
     <t>winter4</t>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>철</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리광석을 캐서 나온 구리조각. 장비를 업그레이드하거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>철광석을 캐서 나온 철조각. 장비를 업그레이드하거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금광석을 캐서 나온 금조각. 장비를 업그레이드하거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드광석을 캐서 나온 다이아몬드조각. 장비를 업그레이드하거나 제작할 때 사용된다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +654,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -613,7 +663,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -973,10 +1023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,28 +1045,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -1028,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1036,16 +1086,16 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1063,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1074,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1098,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1106,10 +1156,10 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1141,16 +1191,16 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1168,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1176,10 +1226,10 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -1203,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1235,10 +1285,10 @@
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1270,10 +1320,10 @@
         <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1305,10 +1355,10 @@
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1340,10 +1390,10 @@
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1351,7 +1401,7 @@
         <v>2005</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
@@ -1375,10 +1425,10 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1410,10 +1460,10 @@
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1421,7 +1471,7 @@
         <v>2007</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1445,10 +1495,10 @@
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -1480,10 +1530,10 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1515,10 +1565,10 @@
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1550,10 +1600,10 @@
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -1585,10 +1635,10 @@
         <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -1596,7 +1646,7 @@
         <v>4001</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -1628,13 +1678,13 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>4002</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
+        <v>4011</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -1663,16 +1713,16 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>5001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
+        <v>4012</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -1689,25 +1739,25 @@
       <c r="J20">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>90</v>
+      <c r="K20" t="s">
+        <v>26</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>5002</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
+        <v>4013</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -1724,25 +1774,25 @@
       <c r="J21">
         <v>100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>90</v>
+      <c r="K21" t="s">
+        <v>26</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>5003</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
+        <v>4014</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -1759,25 +1809,25 @@
       <c r="J22">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>90</v>
+      <c r="K22" t="s">
+        <v>26</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>5004</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
+        <v>4015</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -1794,22 +1844,22 @@
       <c r="J23">
         <v>100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>90</v>
+      <c r="K23" t="s">
+        <v>26</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -1830,21 +1880,21 @@
         <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -1865,21 +1915,21 @@
         <v>100</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
         <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -1900,21 +1950,21 @@
         <v>100</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>5101</v>
+        <v>5004</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -1935,21 +1985,21 @@
         <v>100</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>5102</v>
+        <v>5005</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -1970,21 +2020,21 @@
         <v>100</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>5103</v>
+        <v>5006</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -2005,21 +2055,21 @@
         <v>100</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>5104</v>
+        <v>5007</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -2040,21 +2090,21 @@
         <v>100</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -2075,21 +2125,21 @@
         <v>100</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>5106</v>
+        <v>5102</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -2110,21 +2160,21 @@
         <v>100</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>5201</v>
+        <v>5103</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -2145,21 +2195,21 @@
         <v>100</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>5202</v>
+        <v>5104</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -2180,21 +2230,21 @@
         <v>100</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>5203</v>
+        <v>5105</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -2215,21 +2265,21 @@
         <v>100</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>5204</v>
+        <v>5106</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -2250,21 +2300,21 @@
         <v>100</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>5205</v>
+        <v>5201</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -2285,21 +2335,21 @@
         <v>100</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>5206</v>
+        <v>5202</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -2320,21 +2370,21 @@
         <v>100</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
-        <v>5301</v>
+        <v>5203</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -2355,21 +2405,21 @@
         <v>100</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
-        <v>5302</v>
+        <v>5204</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
@@ -2390,21 +2440,21 @@
         <v>100</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>5303</v>
+        <v>5205</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -2425,21 +2475,21 @@
         <v>100</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
-        <v>5304</v>
+        <v>5206</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -2460,10 +2510,150 @@
         <v>100</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>5301</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>5302</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>-1</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>5303</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>-1</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>5304</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>-1</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111AC8B8-3A73-466C-A58E-65495C94BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8659A92-25EA-4A28-B5CA-02951F0487D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28965" yWindow="990" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>Water</t>
   </si>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>돌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropPercent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1023,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,9 +1045,10 @@
     <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1080,8 +1085,11 @@
       <c r="L1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1001</v>
       </c>
@@ -1115,8 +1123,11 @@
       <c r="L2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1002</v>
       </c>
@@ -1150,8 +1161,11 @@
       <c r="L3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1003</v>
       </c>
@@ -1185,8 +1199,11 @@
       <c r="L4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1004</v>
       </c>
@@ -1220,8 +1237,11 @@
       <c r="L5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1005</v>
       </c>
@@ -1255,8 +1275,11 @@
       <c r="L6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2001</v>
       </c>
@@ -1290,8 +1313,11 @@
       <c r="L7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2002</v>
       </c>
@@ -1325,8 +1351,11 @@
       <c r="L8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2003</v>
       </c>
@@ -1360,8 +1389,11 @@
       <c r="L9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>2004</v>
       </c>
@@ -1395,8 +1427,11 @@
       <c r="L10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2005</v>
       </c>
@@ -1430,8 +1465,11 @@
       <c r="L11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>2006</v>
       </c>
@@ -1465,8 +1503,11 @@
       <c r="L12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2007</v>
       </c>
@@ -1500,8 +1541,11 @@
       <c r="L13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>3001</v>
       </c>
@@ -1535,8 +1579,11 @@
       <c r="L14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>3002</v>
       </c>
@@ -1570,8 +1617,11 @@
       <c r="L15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>3003</v>
       </c>
@@ -1605,8 +1655,11 @@
       <c r="L16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>3004</v>
       </c>
@@ -1640,8 +1693,11 @@
       <c r="L17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>4001</v>
       </c>
@@ -1675,8 +1731,11 @@
       <c r="L18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>4011</v>
       </c>
@@ -1710,8 +1769,11 @@
       <c r="L19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>4012</v>
       </c>
@@ -1745,8 +1807,11 @@
       <c r="L20" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>4013</v>
       </c>
@@ -1780,8 +1845,11 @@
       <c r="L21" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>4014</v>
       </c>
@@ -1815,8 +1883,11 @@
       <c r="L22" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>4015</v>
       </c>
@@ -1850,8 +1921,11 @@
       <c r="L23" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>5001</v>
       </c>
@@ -1885,8 +1959,11 @@
       <c r="L24" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>5002</v>
       </c>
@@ -1920,8 +1997,11 @@
       <c r="L25" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>5003</v>
       </c>
@@ -1955,8 +2035,11 @@
       <c r="L26" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>5004</v>
       </c>
@@ -1990,8 +2073,11 @@
       <c r="L27" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>5005</v>
       </c>
@@ -2025,8 +2111,11 @@
       <c r="L28" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>5006</v>
       </c>
@@ -2060,8 +2149,11 @@
       <c r="L29" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>5007</v>
       </c>
@@ -2095,8 +2187,11 @@
       <c r="L30" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>5101</v>
       </c>
@@ -2130,8 +2225,11 @@
       <c r="L31" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>5102</v>
       </c>
@@ -2165,8 +2263,11 @@
       <c r="L32" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>5103</v>
       </c>
@@ -2200,8 +2301,11 @@
       <c r="L33" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>5104</v>
       </c>
@@ -2235,8 +2339,11 @@
       <c r="L34" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>5105</v>
       </c>
@@ -2270,8 +2377,11 @@
       <c r="L35" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>5106</v>
       </c>
@@ -2305,8 +2415,11 @@
       <c r="L36" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>5201</v>
       </c>
@@ -2340,8 +2453,11 @@
       <c r="L37" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>5202</v>
       </c>
@@ -2375,8 +2491,11 @@
       <c r="L38" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>5203</v>
       </c>
@@ -2410,8 +2529,11 @@
       <c r="L39" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>5204</v>
       </c>
@@ -2445,8 +2567,11 @@
       <c r="L40" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>5205</v>
       </c>
@@ -2480,8 +2605,11 @@
       <c r="L41" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>5206</v>
       </c>
@@ -2515,8 +2643,11 @@
       <c r="L42" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>5301</v>
       </c>
@@ -2550,8 +2681,11 @@
       <c r="L43" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>5302</v>
       </c>
@@ -2585,8 +2719,11 @@
       <c r="L44" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>5303</v>
       </c>
@@ -2620,8 +2757,11 @@
       <c r="L45" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>5304</v>
       </c>
@@ -2654,6 +2794,9 @@
       </c>
       <c r="L46" s="3" t="s">
         <v>104</v>
+      </c>
+      <c r="M46">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\STIKA\Unity\1S3B\program\1S3B\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8659A92-25EA-4A28-B5CA-02951F0487D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5B6038-44D4-4DCC-A4FB-B1F9DB8BB65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28965" yWindow="990" windowWidth="23460" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
   <si>
     <t>Water</t>
   </si>
@@ -403,6 +403,22 @@
   </si>
   <si>
     <t>DropPercent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1089,21 +1105,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1117,31 +1133,31 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
+      <c r="K2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1159,27 +1175,27 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3">
-        <v>-1</v>
+        <v>57</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1197,27 +1213,27 @@
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
+        <v>58</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1235,27 +1251,27 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
+        <v>33</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1273,56 +1289,56 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
+      <c r="M7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -1334,7 +1350,7 @@
         <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1349,7 +1365,7 @@
         <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1357,10 +1373,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1372,7 +1388,7 @@
         <v>-1</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1387,7 +1403,7 @@
         <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1395,10 +1411,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -1410,7 +1426,7 @@
         <v>-1</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1425,7 +1441,7 @@
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1433,10 +1449,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
@@ -1448,7 +1464,7 @@
         <v>-1</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1463,7 +1479,7 @@
         <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1471,10 +1487,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1486,7 +1502,7 @@
         <v>-1</v>
       </c>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1501,7 +1517,7 @@
         <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1509,10 +1525,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1524,7 +1540,7 @@
         <v>-1</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1539,18 +1555,18 @@
         <v>70</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>3001</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>2007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -1562,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="G14" s="1">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1577,18 +1593,18 @@
         <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>3002</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
+        <v>3001</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -1600,7 +1616,7 @@
         <v>-1</v>
       </c>
       <c r="G15" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1615,7 +1631,7 @@
         <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1623,10 +1639,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -1638,7 +1654,7 @@
         <v>-1</v>
       </c>
       <c r="G16" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1653,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1661,10 +1677,10 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -1676,7 +1692,7 @@
         <v>-1</v>
       </c>
       <c r="G17" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1691,7 +1707,7 @@
         <v>70</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1699,22 +1715,22 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>4001</v>
+        <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>-1</v>
       </c>
-      <c r="G18">
-        <v>-1</v>
+      <c r="G18" s="1">
+        <v>104</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1726,10 +1742,10 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -1737,13 +1753,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>4011</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>4001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -1767,21 +1783,21 @@
         <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -1804,22 +1820,22 @@
       <c r="K20" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="3">
-        <v>20</v>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -1843,21 +1859,21 @@
         <v>26</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M21" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -1881,21 +1897,21 @@
         <v>26</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -1919,24 +1935,24 @@
         <v>26</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M23" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>5001</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
+        <v>4015</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -1953,25 +1969,25 @@
       <c r="J24">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>88</v>
+      <c r="K24" t="s">
+        <v>26</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24">
-        <v>-1</v>
+        <v>110</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -1995,7 +2011,7 @@
         <v>88</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2003,10 +2019,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
@@ -2033,7 +2049,7 @@
         <v>88</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2041,7 +2057,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2071,7 +2087,7 @@
         <v>88</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -2079,7 +2095,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -2109,7 +2125,7 @@
         <v>88</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -2117,7 +2133,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2147,7 +2163,7 @@
         <v>88</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2155,10 +2171,10 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -2185,7 +2201,7 @@
         <v>88</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M30">
         <v>-1</v>
@@ -2193,13 +2209,13 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>5101</v>
+        <v>5007</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -2223,7 +2239,7 @@
         <v>88</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -2231,13 +2247,13 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -2261,7 +2277,7 @@
         <v>88</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -2269,10 +2285,10 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
@@ -2299,7 +2315,7 @@
         <v>88</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M33">
         <v>-1</v>
@@ -2307,7 +2323,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
@@ -2337,7 +2353,7 @@
         <v>88</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -2345,7 +2361,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -2375,7 +2391,7 @@
         <v>88</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M35">
         <v>-1</v>
@@ -2383,7 +2399,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
@@ -2413,7 +2429,7 @@
         <v>88</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M36">
         <v>-1</v>
@@ -2421,13 +2437,13 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>5201</v>
+        <v>5106</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -2451,7 +2467,7 @@
         <v>88</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -2459,13 +2475,13 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -2489,7 +2505,7 @@
         <v>88</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -2497,7 +2513,7 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -2527,7 +2543,7 @@
         <v>88</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M39">
         <v>-1</v>
@@ -2535,7 +2551,7 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -2565,7 +2581,7 @@
         <v>88</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M40">
         <v>-1</v>
@@ -2573,7 +2589,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -2603,7 +2619,7 @@
         <v>88</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M41">
         <v>-1</v>
@@ -2611,13 +2627,13 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -2641,7 +2657,7 @@
         <v>88</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M42">
         <v>-1</v>
@@ -2649,13 +2665,13 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
-        <v>5301</v>
+        <v>5206</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -2679,7 +2695,7 @@
         <v>88</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M43">
         <v>-1</v>
@@ -2687,13 +2703,13 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -2717,7 +2733,7 @@
         <v>88</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M44">
         <v>-1</v>
@@ -2725,7 +2741,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
@@ -2755,7 +2771,7 @@
         <v>88</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M45">
         <v>-1</v>
@@ -2763,7 +2779,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
@@ -2793,9 +2809,47 @@
         <v>88</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>5304</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>-1</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M46">
+      <c r="M47">
         <v>-1</v>
       </c>
     </row>

--- a/program/1S3B/RawData/Item_Data.xlsx
+++ b/program/1S3B/RawData/Item_Data.xlsx
@@ -19,537 +19,552 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="177">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="182">
+  <x:si>
+    <x:t>Equip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corn7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tomato7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radish7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당근씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carrot7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Potato7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가지씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무를 베서 나온 나무조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물로 자라는데에 6일이 소요된다. 여러번 수확 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물로 자라는데에 7일이 소요된다. 여러번 수확 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 작물로 자라는데에 8일이 소요된다. 여러번 수확 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 작물로 자라는데에 7일이 소요된다. 여러번 수확 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아몬드광석을 캐서 나온 다이아몬드조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진달래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄에 피는 꽃이다. 긴 꽃대 끝에 한 송이씩 피는 꽃으로, 노란색을 띈다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 작물이다. 무다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CarrotSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PumpkinSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RadishSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickAxe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SellGold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WheatSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LettuceSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Seeds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EquipType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DropPercent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TomatoSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PotatoSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CornSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수선화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Water1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>summer4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>summer5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winter1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winter2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winter4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아몬드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물뿌리개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>summer2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>summer1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Water</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수박씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PickAxe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CropID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통통한버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식용버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딸기씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울베리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BuyGold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옥수수씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양배추씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호박씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fall5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spring2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cooper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>summer6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>summer3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>winter3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diamond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딸기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곡괭이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도끼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무씨앗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옥수수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식용꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괭이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철광석을 캐서 나온 철조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구리광석을 캐서 나온 구리조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금광석을 캐서 나온 금조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작물에 물을 줄 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터를 공격할 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Strawberry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Watermelon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eggplant7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strawberry7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Wheat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watermelon7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Corn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lettuce7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pumpkin7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄에 피는 꽃이다. 붉은색과 핑크색 꽃이 특징이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄에 피는 꽃이다. 크고 분홍색이 특징이며, 고급스러운 분위기를 자아낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 작물이다. 딸기다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Tomato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Pumpkin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description[]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#ItemData[{}]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 작물이다. 양배추다.</x:t>
+  </x:si>
   <x:si>
     <x:t>가을 작물이다. 토마토다.</x:t>
   </x:si>
   <x:si>
-    <x:t>봄 작물이다. 딸기다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 작물이다. 무다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 작물이다. 양배추다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 작물로 자라는데에 7일이 소요된다. 여러번 수확 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 작물로 자라는데에 8일이 소요된다. 여러번 수확 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 작물로 자라는데에 7일이 소요된다. 여러번 수확 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 작물로 자라는데에 6일이 소요된다. 여러번 수확 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌을 캐서 나온 돌조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무를 베서 나온 나무조각. 건물을 짓거나 제작할 때 사용된다.</x:t>
+    <x:t>Crops/Carrot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Lettuce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StrawberrySeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Radish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Potato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WatermelonSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EggplantSeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SpriteName[]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물이다. 감자다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 작물이다. 밀이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 작물이다. 호박이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅을 개간할때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나무를 벨 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌을 깰 때 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물이다. 가지다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물이다. 옥수수다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물이다. 수박이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 작물이다. 당근이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crops/Eggplant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여름 작물로 자라는데에 10일이 소요된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 작물로 자라는데에 12일이 소요된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봄 작물로 자라는데에 8일이 소요된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을 작물로 자라는데에 5일이 소요된다.</x:t>
   </x:si>
   <x:si>
     <x:t>봄 작물로 자라는데에 5일이 소요된다.</x:t>
   </x:si>
   <x:si>
-    <x:t>Crops/Lettuce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Tomato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Radish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WatermelonSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#ItemData[{}]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Potato</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Carrot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StrawberrySeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Pumpkin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description[]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌을 깰 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅을 개간할때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EggplantSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Eggplant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무를 벨 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SpriteName[]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 작물이다. 감자다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터를 공격할 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Watermelon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작물에 물을 줄 때 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Strawberry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PumpkinSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LettuceSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WheatSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CornSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SellGold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Seeds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EquipType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CarrotSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DropPercent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TomatoSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RadishSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickAxe1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PotatoSeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 작물로 자라는데에 8일이 소요된다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>여름 작물로 자라는데에 8일이 소요된다.</x:t>
   </x:si>
   <x:si>
-    <x:t>여름 작물로 자라는데에 10일이 소요된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아몬드광석을 캐서 나온 다이아몬드조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철광석을 캐서 나온 철조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구리광석을 캐서 나온 구리조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금광석을 캐서 나온 금조각. 장비를 업그레이드하거나 제작할 때 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민들레</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괭이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식용꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딸기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수박</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호박</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>곡괭이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도끼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옥수수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 작물이다. 가지다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 작물이다. 밀이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iron</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cooper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diamond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>winter3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>summer6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>summer3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Water1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>summer5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>summer4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>winter4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아몬드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sword1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>winter1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>winter2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PickAxe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수박씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물뿌리개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호박씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fall5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spring1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axe1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딸기씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봄 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>summer2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>summer1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울베리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoe1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BuyGold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옥수수씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CropID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Water</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양배추씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통통한버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식용버섯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Potato7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가지씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wheat7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tomato7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당근씨앗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carrot7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Radish7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corn7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Equip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Strawberry7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Wheat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lettuce7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crops/Corn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pumpkin7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eggplant7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watermelon7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 작물이다. 옥수수다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 작물로 자라는데에 5일이 소요된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 작물로 자라는데에 12일이 소요된다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>가을 작물로 자라는데에 7일이 소요된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여름 작물이다. 수박이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 작물이다. 당근이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을 작물이다. 호박이다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -626,7 +641,7 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1388,8 +1403,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M58"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D32" activeCellId="0" sqref="D32:D32"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D45" activeCellId="0" sqref="D45:D45"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.399999999999999"/>
@@ -1409,43 +1424,43 @@
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M1" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:13">
@@ -1453,16 +1468,16 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G2" s="1">
         <x:v>-1</x:v>
@@ -1477,10 +1492,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L2" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M2" s="1">
         <x:v>0</x:v>
@@ -1491,16 +1506,16 @@
         <x:v>1001</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G3" s="1">
         <x:v>-1</x:v>
@@ -1515,10 +1530,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M3" s="1">
         <x:v>0</x:v>
@@ -1529,16 +1544,16 @@
         <x:v>1002</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G4" s="1">
         <x:v>-1</x:v>
@@ -1553,10 +1568,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M4" s="1">
         <x:v>0</x:v>
@@ -1567,16 +1582,16 @@
         <x:v>1003</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G5" s="1">
         <x:v>-1</x:v>
@@ -1591,10 +1606,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M5" s="1">
         <x:v>0</x:v>
@@ -1605,16 +1620,16 @@
         <x:v>1004</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G6" s="1">
         <x:v>-1</x:v>
@@ -1629,10 +1644,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M6" s="1">
         <x:v>0</x:v>
@@ -1643,16 +1658,16 @@
         <x:v>1005</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G7" s="1">
         <x:v>-1</x:v>
@@ -1667,10 +1682,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M7" s="1">
         <x:v>0</x:v>
@@ -1681,13 +1696,13 @@
         <x:v>2001</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="1">
         <x:v>-1</x:v>
@@ -1705,10 +1720,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M8" s="1">
         <x:v>-1</x:v>
@@ -1719,13 +1734,13 @@
         <x:v>2002</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F9" s="1">
         <x:v>-1</x:v>
@@ -1743,10 +1758,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M9" s="1">
         <x:v>-1</x:v>
@@ -1757,13 +1772,13 @@
         <x:v>2003</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="1">
         <x:v>-1</x:v>
@@ -1781,10 +1796,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L10" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M10" s="1">
         <x:v>-1</x:v>
@@ -1795,13 +1810,13 @@
         <x:v>2004</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F11" s="1">
         <x:v>-1</x:v>
@@ -1819,10 +1834,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K11" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L11" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M11" s="1">
         <x:v>-1</x:v>
@@ -1833,13 +1848,13 @@
         <x:v>2005</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F12" s="1">
         <x:v>-1</x:v>
@@ -1857,10 +1872,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K12" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L12" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M12" s="1">
         <x:v>-1</x:v>
@@ -1871,13 +1886,13 @@
         <x:v>2006</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13" s="1">
         <x:v>-1</x:v>
@@ -1895,10 +1910,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K13" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L13" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M13" s="1">
         <x:v>-1</x:v>
@@ -1909,13 +1924,13 @@
         <x:v>2007</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E14" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F14" s="1">
         <x:v>-1</x:v>
@@ -1933,10 +1948,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K14" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L14" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M14" s="1">
         <x:v>-1</x:v>
@@ -1947,13 +1962,13 @@
         <x:v>3001</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E15" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F15" s="1">
         <x:v>-1</x:v>
@@ -1971,10 +1986,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K15" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L15" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="M15" s="1">
         <x:v>-1</x:v>
@@ -1985,13 +2000,13 @@
         <x:v>3002</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E16" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F16" s="1">
         <x:v>-1</x:v>
@@ -2009,10 +2024,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K16" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L16" s="1" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="L16" s="1" t="s">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="M16" s="1">
         <x:v>-1</x:v>
@@ -2023,13 +2038,13 @@
         <x:v>3003</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E17" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F17" s="1">
         <x:v>-1</x:v>
@@ -2047,10 +2062,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K17" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L17" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M17" s="1">
         <x:v>-1</x:v>
@@ -2061,13 +2076,13 @@
         <x:v>3004</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="1">
         <x:v>-1</x:v>
@@ -2085,10 +2100,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K18" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L18" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="M18" s="1">
         <x:v>-1</x:v>
@@ -2099,13 +2114,13 @@
         <x:v>4001</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F19" s="1">
         <x:v>-1</x:v>
@@ -2123,10 +2138,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K19" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L19" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M19" s="1">
         <x:v>-1</x:v>
@@ -2137,13 +2152,13 @@
         <x:v>4011</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F20" s="1">
         <x:v>-1</x:v>
@@ -2161,10 +2176,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K20" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M20" s="1">
         <x:v>50</x:v>
@@ -2175,13 +2190,13 @@
         <x:v>4012</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F21" s="1">
         <x:v>-1</x:v>
@@ -2199,10 +2214,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K21" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L21" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M21" s="1">
         <x:v>20</x:v>
@@ -2213,13 +2228,13 @@
         <x:v>4013</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F22" s="1">
         <x:v>-1</x:v>
@@ -2237,10 +2252,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K22" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L22" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M22" s="1">
         <x:v>15</x:v>
@@ -2251,13 +2266,13 @@
         <x:v>4014</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F23" s="1">
         <x:v>-1</x:v>
@@ -2275,10 +2290,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K23" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M23" s="1">
         <x:v>10</x:v>
@@ -2289,13 +2304,13 @@
         <x:v>4015</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F24" s="1">
         <x:v>-1</x:v>
@@ -2313,10 +2328,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K24" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L24" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M24" s="1">
         <x:v>5</x:v>
@@ -2327,13 +2342,13 @@
         <x:v>5001</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F25" s="1">
         <x:v>-1</x:v>
@@ -2351,10 +2366,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K25" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L25" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M25" s="1">
         <x:v>-1</x:v>
@@ -2365,13 +2380,13 @@
         <x:v>5002</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F26" s="1">
         <x:v>-1</x:v>
@@ -2389,10 +2404,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K26" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L26" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M26" s="1">
         <x:v>-1</x:v>
@@ -2403,13 +2418,13 @@
         <x:v>5003</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F27" s="1">
         <x:v>-1</x:v>
@@ -2427,10 +2442,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K27" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L27" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M27" s="1">
         <x:v>-1</x:v>
@@ -2441,13 +2456,13 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F28" s="1">
         <x:v>-1</x:v>
@@ -2465,10 +2480,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K28" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="M28" s="1">
         <x:v>-1</x:v>
@@ -2479,13 +2494,13 @@
         <x:v>5005</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F29" s="1">
         <x:v>-1</x:v>
@@ -2503,10 +2518,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K29" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L29" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M29" s="1">
         <x:v>-1</x:v>
@@ -2517,13 +2532,13 @@
         <x:v>5006</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F30" s="1">
         <x:v>-1</x:v>
@@ -2541,10 +2556,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K30" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L30" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M30" s="1">
         <x:v>-1</x:v>
@@ -2555,13 +2570,13 @@
         <x:v>5007</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F31" s="1">
         <x:v>-1</x:v>
@@ -2579,10 +2594,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L31" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M31" s="1">
         <x:v>-1</x:v>
@@ -2593,13 +2608,13 @@
         <x:v>5101</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F32" s="1">
         <x:v>-1</x:v>
@@ -2617,10 +2632,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M32" s="1">
         <x:v>-1</x:v>
@@ -2631,13 +2646,13 @@
         <x:v>5102</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F33" s="1">
         <x:v>-1</x:v>
@@ -2655,10 +2670,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K33" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L33" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M33" s="1">
         <x:v>-1</x:v>
@@ -2669,13 +2684,13 @@
         <x:v>5103</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F34" s="1">
         <x:v>-1</x:v>
@@ -2693,10 +2708,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K34" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L34" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M34" s="1">
         <x:v>-1</x:v>
@@ -2707,13 +2722,13 @@
         <x:v>5104</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F35" s="1">
         <x:v>-1</x:v>
@@ -2731,10 +2746,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K35" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L35" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M35" s="1">
         <x:v>-1</x:v>
@@ -2745,13 +2760,13 @@
         <x:v>5105</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F36" s="1">
         <x:v>-1</x:v>
@@ -2769,10 +2784,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K36" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L36" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M36" s="1">
         <x:v>-1</x:v>
@@ -2783,13 +2798,13 @@
         <x:v>5106</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F37" s="1">
         <x:v>-1</x:v>
@@ -2807,7 +2822,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K37" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L37" s="1" t="s">
         <x:v>94</x:v>
@@ -2821,13 +2836,13 @@
         <x:v>5201</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F38" s="1">
         <x:v>-1</x:v>
@@ -2845,10 +2860,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K38" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L38" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M38" s="1">
         <x:v>-1</x:v>
@@ -2859,13 +2874,13 @@
         <x:v>5202</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F39" s="1">
         <x:v>-1</x:v>
@@ -2883,10 +2898,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M39" s="1">
         <x:v>-1</x:v>
@@ -2897,13 +2912,13 @@
         <x:v>5203</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F40" s="1">
         <x:v>-1</x:v>
@@ -2921,10 +2936,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L40" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M40" s="1">
         <x:v>-1</x:v>
@@ -2935,13 +2950,13 @@
         <x:v>5204</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F41" s="1">
         <x:v>-1</x:v>
@@ -2959,10 +2974,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K41" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L41" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M41" s="1">
         <x:v>-1</x:v>
@@ -2973,13 +2988,13 @@
         <x:v>5205</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F42" s="1">
         <x:v>-1</x:v>
@@ -2997,10 +3012,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K42" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L42" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="M42" s="1">
         <x:v>-1</x:v>
@@ -3011,13 +3026,13 @@
         <x:v>5206</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F43" s="1">
         <x:v>-1</x:v>
@@ -3035,10 +3050,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K43" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L43" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M43" s="1">
         <x:v>-1</x:v>
@@ -3049,13 +3064,13 @@
         <x:v>5301</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F44" s="1">
         <x:v>-1</x:v>
@@ -3073,10 +3088,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K44" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L44" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M44" s="1">
         <x:v>-1</x:v>
@@ -3087,13 +3102,13 @@
         <x:v>5302</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F45" s="1">
         <x:v>-1</x:v>
@@ -3111,10 +3126,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K45" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L45" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M45" s="1">
         <x:v>-1</x:v>
@@ -3125,13 +3140,13 @@
         <x:v>5303</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F46" s="1">
         <x:v>-1</x:v>
@@ -3149,10 +3164,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K46" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L46" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M46" s="1">
         <x:v>-1</x:v>
@@ -3163,13 +3178,13 @@
         <x:v>5304</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F47" s="1">
         <x:v>-1</x:v>
@@ -3187,10 +3202,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K47" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L47" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M47" s="1">
         <x:v>-1</x:v>
@@ -3201,13 +3216,13 @@
         <x:v>6001</x:v>
       </x:c>
       <x:c r="C48" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D48" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E48" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F48" s="1">
         <x:v>-1</x:v>
@@ -3225,10 +3240,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K48" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="L48" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M48" s="1">
         <x:v>-1</x:v>
@@ -3239,13 +3254,13 @@
         <x:v>6002</x:v>
       </x:c>
       <x:c r="C49" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D49" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E49" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F49" s="1">
         <x:v>-1</x:v>
@@ -3263,10 +3278,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K49" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="L49" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="M49" s="1">
         <x:v>-1</x:v>
@@ -3277,13 +3292,13 @@
         <x:v>6003</x:v>
       </x:c>
       <x:c r="C50" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D50" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E50" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F50" s="1">
         <x:v>-1</x:v>
@@ -3301,10 +3316,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K50" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L50" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M50" s="1">
         <x:v>-1</x:v>
@@ -3315,13 +3330,13 @@
         <x:v>6004</x:v>
       </x:c>
       <x:c r="C51" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E51" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F51" s="1">
         <x:v>-1</x:v>
@@ -3339,10 +3354,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K51" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="L51" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M51" s="1">
         <x:v>-1</x:v>
@@ -3353,13 +3368,13 @@
         <x:v>6005</x:v>
       </x:c>
       <x:c r="C52" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E52" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F52" s="1">
         <x:v>-1</x:v>
@@ -3377,10 +3392,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K52" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L52" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M52" s="1">
         <x:v>-1</x:v>
@@ -3391,13 +3406,13 @@
         <x:v>6006</x:v>
       </x:c>
       <x:c r="C53" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E53" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F53" s="1">
         <x:v>-1</x:v>
@@ -3415,10 +3430,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K53" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="L53" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="M53" s="1">
         <x:v>-1</x:v>
@@ -3429,13 +3444,13 @@
         <x:v>6007</x:v>
       </x:c>
       <x:c r="C54" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E54" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F54" s="1">
         <x:v>-1</x:v>
@@ -3453,10 +3468,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K54" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="L54" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M54" s="1">
         <x:v>-1</x:v>
@@ -3467,13 +3482,13 @@
         <x:v>7001</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D55" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E55" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F55" s="1">
         <x:v>-1</x:v>
@@ -3491,10 +3506,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K55" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L55" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="M55" s="1">
         <x:v>-1</x:v>
@@ -3505,13 +3520,13 @@
         <x:v>7002</x:v>
       </x:c>
       <x:c r="C56" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D56" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E56" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F56" s="1">
         <x:v>-1</x:v>
@@ -3529,10 +3544,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K56" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="L56" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M56" s="1">
         <x:v>-1</x:v>
@@ -3543,13 +3558,13 @@
         <x:v>7003</x:v>
       </x:c>
       <x:c r="C57" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D57" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E57" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F57" s="1">
         <x:v>-1</x:v>
@@ -3567,10 +3582,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K57" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L57" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M57" s="1">
         <x:v>-1</x:v>
@@ -3581,13 +3596,13 @@
         <x:v>7004</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D58" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E58" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F58" s="1">
         <x:v>-1</x:v>
@@ -3605,10 +3620,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K58" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="L58" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="M58" s="1">
         <x:v>-1</x:v>
